--- a/Test Data/Verify_40V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_40V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhosash\Desktop\7th Jan\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852B20D-C7D7-4BF8-85E0-85BEE551D064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Color Codes</t>
   </si>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +766,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -775,10 +775,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
@@ -787,39 +787,39 @@
         <v>27</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>27</v>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6">
-        <v>6</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>41</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -867,45 +867,16 @@
       <c r="E14" s="6">
         <v>14</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>16</v>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="6">
-        <v>14</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -920,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_40V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_40V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852B20D-C7D7-4BF8-85E0-85BEE551D064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF7BD8-CFE2-4AC8-99FC-E5C6F76850FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>Color Codes</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>0.080</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>40V (A)</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -297,6 +303,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J9" sqref="J9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,9 +604,10 @@
     <col min="7" max="7" width="25.21875" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -605,7 +615,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -617,7 +627,7 @@
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -629,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -639,16 +649,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -676,8 +686,11 @@
       <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -705,8 +718,11 @@
       <c r="I8" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -734,8 +750,11 @@
       <c r="I9" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -763,8 +782,11 @@
       <c r="I10" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -792,8 +814,11 @@
       <c r="I11" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -821,8 +846,11 @@
       <c r="I12" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -850,8 +878,11 @@
       <c r="I13" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -878,6 +909,9 @@
       </c>
       <c r="I14" s="12" t="s">
         <v>38</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify_40V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_40V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF7BD8-CFE2-4AC8-99FC-E5C6F76850FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="more panel test data" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -172,13 +171,13 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>40V (A)</t>
+    <t>40V Rail(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,14 +297,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,11 +585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,12 +607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -622,10 +621,10 @@
       <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -718,199 +717,39 @@
       <c r="I8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6">
-        <v>6</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="6">
-        <v>14</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -925,16 +764,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="D5:F18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -955,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -976,7 +815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -997,7 +836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1037,6 +876,166 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify_40V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_40V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67547BA-8DE1-4741-B8E5-54EBC4FEF3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
   <si>
     <t>Color Codes</t>
   </si>
@@ -147,9 +148,6 @@
     <t>2.200</t>
   </si>
   <si>
-    <t>1.250</t>
-  </si>
-  <si>
     <t>0.105</t>
   </si>
   <si>
@@ -165,19 +163,22 @@
     <t>PSB820</t>
   </si>
   <si>
-    <t>0.080</t>
-  </si>
-  <si>
     <t>Loading Details Name</t>
   </si>
   <si>
     <t>40V Rail(A)</t>
+  </si>
+  <si>
+    <t>ZX4</t>
+  </si>
+  <si>
+    <t>NGC-601/T1456 OR TC-206_TC-207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,11 +586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,7 +643,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -686,7 +689,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -696,40 +699,40 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
+      <c r="C9" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
@@ -740,17 +743,17 @@
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>27</v>
+      <c r="G9" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -901,13 +904,13 @@
         <v>27</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -930,16 +933,16 @@
         <v>28</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -962,16 +965,16 @@
         <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1003,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1035,7 +1038,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
